--- a/docs/P3 - Requirements Stack.xlsx
+++ b/docs/P3 - Requirements Stack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{934DD962-A46D-412A-9BC1-47F885305E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4325D8F-89E6-4069-96D0-264C42DA9017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -689,7 +689,9 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
@@ -721,7 +723,9 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
@@ -736,7 +740,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
@@ -751,7 +757,9 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
@@ -811,7 +819,9 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
@@ -826,7 +836,9 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
@@ -841,7 +853,9 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="29.25">
       <c r="A17" s="1">
@@ -856,7 +870,9 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="29.25">
       <c r="A18" s="1">
@@ -871,7 +887,9 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="29.25">
       <c r="A19" s="1">
@@ -886,7 +904,9 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
@@ -935,7 +955,9 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="29.25">
       <c r="A23" s="1">
@@ -950,7 +972,9 @@
       <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="29.25">
       <c r="A24" s="1">
@@ -980,7 +1004,9 @@
       <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="29.25">
       <c r="A26" s="1">
@@ -1100,7 +1126,9 @@
       <c r="D33" s="1">
         <v>4</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
@@ -1115,7 +1143,9 @@
       <c r="D34" s="1">
         <v>4</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
@@ -1130,7 +1160,9 @@
       <c r="D35" s="1">
         <v>4</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
@@ -1216,8 +1248,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF0891E31D3F4748B96BA1AD6C8516D0" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c6ad350ae23677189d25aea62ebfdb06">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3dee608-f3e3-4732-bac7-04ace8bc815d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90ba9d69135dc0ff0aa81b0c153a4ef5" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF0891E31D3F4748B96BA1AD6C8516D0" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e6a7620b83dbdb6bccc61e22e4ed2fa">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3dee608-f3e3-4732-bac7-04ace8bc815d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25b88dee9cc6fe20bc8c4b3e1587c0f6" ns2:_="">
     <xsd:import namespace="b3dee608-f3e3-4732-bac7-04ace8bc815d"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1353,12 +1391,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1369,11 +1401,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E9C4BD-28F5-4DE7-AA91-CEAB833D2EC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7E8F8E-4E47-4472-B67A-83324F2DF2FE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7E8F8E-4E47-4472-B67A-83324F2DF2FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3715750-B029-4E46-8D16-CBA6CFC4C418}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/docs/P3 - Requirements Stack.xlsx
+++ b/docs/P3 - Requirements Stack.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4325D8F-89E6-4069-96D0-264C42DA9017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7975491A-CC7E-4E79-9DD4-75BCEFCCB998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -774,7 +774,9 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
@@ -789,7 +791,9 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="29.25">
       <c r="A13" s="1">
@@ -804,7 +808,9 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
@@ -989,7 +995,9 @@
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="29.25">
       <c r="A25" s="1">
@@ -1021,7 +1029,9 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
@@ -1036,7 +1046,9 @@
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
@@ -1051,7 +1063,9 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
@@ -1066,7 +1080,9 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
@@ -1081,7 +1097,9 @@
       <c r="D30" s="1">
         <v>4</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
@@ -1096,7 +1114,9 @@
       <c r="D31" s="1">
         <v>4</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="29.25">
       <c r="A32" s="1">
@@ -1111,7 +1131,9 @@
       <c r="D32" s="1">
         <v>4</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
@@ -1248,9 +1270,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1392,16 +1417,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7E8F8E-4E47-4472-B67A-83324F2DF2FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D148FFC4-F79A-4B30-90DC-AEB4C4F0CAAD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1409,5 +1431,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D148FFC4-F79A-4B30-90DC-AEB4C4F0CAAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE7E8F8E-4E47-4472-B67A-83324F2DF2FE}"/>
 </file>
--- a/docs/P3 - Requirements Stack.xlsx
+++ b/docs/P3 - Requirements Stack.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7975491A-CC7E-4E79-9DD4-75BCEFCCB998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kansas.sharepoint.com/teams/EECS581Group/Shared Documents/General/Project 3/Excel Files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{828E90A4-8306-433C-9CBD-CB865F6D8380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -578,11 +583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
@@ -608,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15.95">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -625,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29.25">
+    <row r="3" spans="1:5" ht="32.1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -642,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15.95">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -659,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15.95">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -676,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15.95">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -727,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15.95">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -744,7 +749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15.95">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -761,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="15.95">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -778,7 +783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="15.95">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -795,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29.25">
+    <row r="13" spans="1:5" ht="15.95">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -863,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29.25">
+    <row r="17" spans="1:5" ht="32.1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -880,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="29.25">
+    <row r="18" spans="1:5" ht="32.1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -897,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29.25">
+    <row r="19" spans="1:5" ht="15.95">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -914,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="15.95">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -931,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="15.95">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -948,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="15.95">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -965,7 +970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29.25">
+    <row r="23" spans="1:5" ht="32.1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -982,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29.25">
+    <row r="24" spans="1:5" ht="32.1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29.25">
+    <row r="25" spans="1:5" ht="32.1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29.25">
+    <row r="26" spans="1:5" ht="32.1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="15.95">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="15.95">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29.25">
+    <row r="32" spans="1:5" ht="32.1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1199,9 +1204,11 @@
       <c r="D36" s="1">
         <v>5</v>
       </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="29.25">
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="32.1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1214,9 +1221,11 @@
       <c r="D37" s="1">
         <v>5</v>
       </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="29.25">
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="32.1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1229,9 +1238,11 @@
       <c r="D38" s="1">
         <v>5</v>
       </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="29.25">
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="32.1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1244,9 +1255,11 @@
       <c r="D39" s="1">
         <v>5</v>
       </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="29.25">
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="32.1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1259,7 +1272,9 @@
       <c r="D40" s="1">
         <v>5</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1279,8 +1294,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF0891E31D3F4748B96BA1AD6C8516D0" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e6a7620b83dbdb6bccc61e22e4ed2fa">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3dee608-f3e3-4732-bac7-04ace8bc815d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25b88dee9cc6fe20bc8c4b3e1587c0f6" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF0891E31D3F4748B96BA1AD6C8516D0" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14a3041982dfcfa8ce8fc9431a175c41">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3dee608-f3e3-4732-bac7-04ace8bc815d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a69a36aab60f870d1313aeebaa15320" ns2:_="">
     <xsd:import namespace="b3dee608-f3e3-4732-bac7-04ace8bc815d"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1427,7 +1442,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3715750-B029-4E46-8D16-CBA6CFC4C418}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DAAAF7-FBD2-49E9-843F-28305F552576}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
